--- a/index_relations.xlsx
+++ b/index_relations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Léonard\switchdrive\EPFL\SHS Lausanne Time Machine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C709CC-DA9C-4174-8457-68D02EF0E972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC395D84-63F8-4F13-8962-1DCD31439F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="850" windowWidth="14400" windowHeight="8450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1074,9 +1074,6 @@
     <t>Gibonne</t>
   </si>
   <si>
-    <t>Edouard Gibbon</t>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146,147,148,149,150,151,152,153,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169,170,171,172,173,174,175,176,177,178,179,180,181,182,183,184,185,186,187,188,189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214,215,216,217,218,219,220,221,222,223,224,225,226,227,228,229,230,231,232,233,234,235,236,237,238,239,240,241,242,243,244,245,246,247,248,249,250,251,252,253,254,255,1000,1001,1002,1003,1004,1005,1006,1007,1008,1009,1010,1011,1012,1013,1014,1015,1016,1017,1018,1019,1020,1021,1022,1023,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038</t>
   </si>
   <si>
@@ -2341,6 +2338,9 @@
   </si>
   <si>
     <t>Prince Louis Eugène de Wurtemberg</t>
+  </si>
+  <si>
+    <t>Edward Gibbon</t>
   </si>
 </sst>
 </file>
@@ -2710,57 +2710,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B163" workbookViewId="0">
-      <selection activeCell="I170" sqref="I170"/>
+    <sheetView tabSelected="1" topLeftCell="B81" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>755</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>761</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>767</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -5368,7 +5368,7 @@
         <v>28</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>345</v>
@@ -5383,17 +5383,17 @@
         <v>348</v>
       </c>
       <c r="I80" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="J80" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="J80" s="4" t="s">
+      <c r="K80" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N80" s="1"/>
     </row>
@@ -5405,17 +5405,17 @@
         <v>5</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J81" s="2">
         <v>46</v>
@@ -5436,35 +5436,35 @@
         <v>28</v>
       </c>
       <c r="D82" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="K82" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="K82" s="1" t="s">
+      <c r="L82" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="M82" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="M82" s="1" t="s">
+      <c r="N82" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
@@ -5478,35 +5478,35 @@
         <v>6</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J83" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="K83" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="L83" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="M83" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="L83" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M83" s="2" t="s">
+      <c r="N83" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
@@ -5521,24 +5521,24 @@
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J84" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
@@ -5553,15 +5553,15 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J85" s="2">
         <v>1017</v>
@@ -5570,7 +5570,7 @@
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
@@ -5587,30 +5587,30 @@
         <v>113</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F86" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J86" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="K86" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="N86" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
@@ -5627,24 +5627,24 @@
         <v>226</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J87" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
@@ -5658,27 +5658,27 @@
         <v>15</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J88" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="K88" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
@@ -5692,29 +5692,29 @@
         <v>6</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J89" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.35">
@@ -5728,16 +5728,16 @@
         <v>74</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J90" s="1">
         <v>131</v>
@@ -5746,7 +5746,7 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
@@ -5760,16 +5760,16 @@
         <v>74</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J91" s="2">
         <v>131</v>
@@ -5778,7 +5778,7 @@
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
@@ -5792,16 +5792,16 @@
         <v>74</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J92" s="1">
         <v>131</v>
@@ -5810,7 +5810,7 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="210.5" x14ac:dyDescent="0.35">
@@ -5824,27 +5824,27 @@
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="J93" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>413</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="N93" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
@@ -5858,31 +5858,31 @@
         <v>74</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J94" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="N94" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
@@ -5896,30 +5896,30 @@
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J95" s="2">
         <v>42.6</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N95" s="2"/>
     </row>
@@ -5934,29 +5934,29 @@
         <v>6</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="J96" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
@@ -5970,18 +5970,18 @@
         <v>74</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J97" s="2">
         <v>1024.1320000000001</v>
@@ -5989,7 +5989,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N97" s="2"/>
     </row>
@@ -6007,24 +6007,24 @@
         <v>149</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="K98" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
@@ -6035,32 +6035,32 @@
         <v>0</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J99" s="2">
         <v>40</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
       <c r="N99" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
@@ -6075,13 +6075,13 @@
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J100" s="1">
         <v>221</v>
@@ -6090,7 +6090,7 @@
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
@@ -6105,13 +6105,13 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J101" s="2">
         <v>74</v>
@@ -6135,28 +6135,28 @@
         <v>244</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J102" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="N102" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="N102" s="4" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
@@ -6170,27 +6170,27 @@
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="J103" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
       <c r="N103" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
@@ -6204,18 +6204,18 @@
         <v>36</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E104" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J104" s="1">
         <v>71</v>
@@ -6224,7 +6224,7 @@
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
@@ -6238,18 +6238,18 @@
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J105" s="2">
         <v>74</v>
@@ -6272,18 +6272,18 @@
         <v>74</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E106" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J106" s="1">
         <v>145</v>
@@ -6304,19 +6304,19 @@
         <v>28</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="J107" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
@@ -6334,27 +6334,27 @@
         <v>15</v>
       </c>
       <c r="D108" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J108" s="1">
         <v>40</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
@@ -6368,16 +6368,16 @@
         <v>36</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J109" s="2">
         <v>40.409999999999997</v>
@@ -6386,7 +6386,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
@@ -6397,17 +6397,17 @@
         <v>5</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J110" s="1">
         <v>46</v>
@@ -6416,7 +6416,7 @@
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
@@ -6430,29 +6430,29 @@
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J111" s="2">
         <v>101</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
       <c r="N111" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
@@ -6469,24 +6469,24 @@
         <v>166</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J112" s="1">
         <v>99.1</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
@@ -6497,19 +6497,19 @@
         <v>0</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J113" s="2">
         <v>158.16399999999999</v>
@@ -6533,21 +6533,21 @@
         <v>234</v>
       </c>
       <c r="E114" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J114" s="1">
         <v>86</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
@@ -6564,29 +6564,29 @@
         <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J115" s="2">
         <v>233</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
       <c r="N115" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.35">
@@ -6601,15 +6601,15 @@
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J116" s="1">
         <v>41.73</v>
@@ -6627,19 +6627,19 @@
         <v>5</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J117" s="2">
         <v>1000</v>
@@ -6662,16 +6662,16 @@
         <v>15</v>
       </c>
       <c r="D118" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J118" s="1">
         <v>232.18</v>
@@ -6689,30 +6689,30 @@
         <v>0</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J119" s="2">
         <v>34.57</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
@@ -6727,19 +6727,19 @@
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J120" s="1">
         <v>84.180999999999997</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
@@ -6756,27 +6756,27 @@
         <v>15</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="J121" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="J121" s="2" t="s">
+      <c r="K121" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
       <c r="N121" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
@@ -6791,13 +6791,13 @@
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J122" s="1">
         <v>87</v>
@@ -6820,29 +6820,29 @@
         <v>28</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J123" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="K123" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.35">
@@ -6856,18 +6856,18 @@
         <v>36</v>
       </c>
       <c r="D124" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J124" s="1">
         <v>105</v>
@@ -6876,7 +6876,7 @@
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.35">
@@ -6893,15 +6893,15 @@
         <v>178</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J125" s="2">
         <v>105</v>
@@ -6910,7 +6910,7 @@
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.35">
@@ -6924,33 +6924,33 @@
         <v>15</v>
       </c>
       <c r="D126" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="H126" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="I126" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="J126" s="1">
         <v>92</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.35">
@@ -6964,18 +6964,18 @@
         <v>6</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J127" s="2">
         <v>83</v>
@@ -6984,7 +6984,7 @@
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.35">
@@ -6998,29 +6998,29 @@
         <v>15</v>
       </c>
       <c r="D128" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>559</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J128" s="1">
         <v>154</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.35">
@@ -7034,18 +7034,18 @@
         <v>36</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E129" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>559</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J129" s="2">
         <v>105</v>
@@ -7054,7 +7054,7 @@
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
       <c r="N129" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.35">
@@ -7069,13 +7069,13 @@
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J130" s="1">
         <v>103</v>
@@ -7099,15 +7099,15 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J131" s="2">
         <v>124</v>
@@ -7116,7 +7116,7 @@
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
       <c r="N131" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.35">
@@ -7131,13 +7131,13 @@
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J132" s="1">
         <v>139.155</v>
@@ -7157,23 +7157,23 @@
         <v>0</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J133" s="2">
         <v>116</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
@@ -7190,18 +7190,18 @@
         <v>36</v>
       </c>
       <c r="D134" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>580</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J134" s="1">
         <v>155</v>
@@ -7210,7 +7210,7 @@
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.35">
@@ -7224,18 +7224,18 @@
         <v>15</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>584</v>
       </c>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J135" s="2">
         <v>21.53</v>
@@ -7243,10 +7243,10 @@
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
       <c r="M135" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="N135" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="N135" s="2" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.35">
@@ -7261,13 +7261,13 @@
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J136" s="1">
         <v>1031</v>
@@ -7276,7 +7276,7 @@
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.35">
@@ -7290,24 +7290,24 @@
         <v>15</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="F137" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>593</v>
       </c>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J137" s="2">
         <v>89</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
@@ -7324,29 +7324,29 @@
         <v>15</v>
       </c>
       <c r="D138" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="J138" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="J138" s="1" t="s">
+      <c r="K138" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="K138" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.35">
@@ -7361,15 +7361,15 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>603</v>
       </c>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J139" s="2">
         <v>149.16</v>
@@ -7378,7 +7378,7 @@
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.35">
@@ -7393,18 +7393,18 @@
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="J140" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>609</v>
       </c>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
@@ -7424,18 +7424,18 @@
         <v>15</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="F141" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J141" s="2">
         <v>250</v>
@@ -7446,7 +7446,7 @@
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
       <c r="N141" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.35">
@@ -7460,18 +7460,18 @@
         <v>15</v>
       </c>
       <c r="D142" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J142" s="1">
         <v>25</v>
@@ -7480,7 +7480,7 @@
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.35">
@@ -7494,29 +7494,29 @@
         <v>15</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>620</v>
       </c>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="J143" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="J143" s="2" t="s">
+      <c r="K143" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="K143" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.35">
@@ -7530,18 +7530,18 @@
         <v>15</v>
       </c>
       <c r="D144" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="F144" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J144" s="1">
         <v>92.153999999999996</v>
@@ -7552,7 +7552,7 @@
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.35">
@@ -7566,18 +7566,18 @@
         <v>6</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E145" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J145" s="2">
         <v>92</v>
@@ -7586,7 +7586,7 @@
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.35">
@@ -7600,31 +7600,31 @@
         <v>15</v>
       </c>
       <c r="D146" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="F146" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="G146" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>636</v>
       </c>
       <c r="H146" s="1"/>
       <c r="I146" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J146" s="1">
         <v>242</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.35">
@@ -7638,23 +7638,23 @@
         <v>15</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>641</v>
       </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="J147" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>80</v>
@@ -7662,7 +7662,7 @@
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.35">
@@ -7676,29 +7676,29 @@
         <v>36</v>
       </c>
       <c r="D148" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G148" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="J148" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.35">
@@ -7712,29 +7712,29 @@
         <v>15</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E149" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J149" s="2">
         <v>1034</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
       <c r="N149" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.35">
@@ -7748,31 +7748,31 @@
         <v>36</v>
       </c>
       <c r="D150" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G150" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="G150" s="1" t="s">
+      <c r="H150" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="H150" s="1" t="s">
+      <c r="I150" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="I150" s="1" t="s">
+      <c r="J150" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.35">
@@ -7786,18 +7786,18 @@
         <v>74</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E151" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J151" s="2">
         <v>242</v>
@@ -7806,7 +7806,7 @@
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.35">
@@ -7823,17 +7823,17 @@
         <v>288</v>
       </c>
       <c r="E152" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="G152" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J152" s="1">
         <v>236.21199999999999</v>
@@ -7844,7 +7844,7 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.35">
@@ -7858,18 +7858,18 @@
         <v>36</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="F153" s="2" t="s">
         <v>669</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>670</v>
       </c>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J153" s="2">
         <v>83</v>
@@ -7878,7 +7878,7 @@
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.35">
@@ -7893,26 +7893,26 @@
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="J154" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="J154" s="1" t="s">
+      <c r="K154" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="K154" s="1" t="s">
-        <v>677</v>
       </c>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.35">
@@ -7926,27 +7926,27 @@
         <v>6</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E155" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F155" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="J155" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="J155" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.35">
@@ -7957,36 +7957,36 @@
         <v>0</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D156" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="F156" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="G156" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="J156" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="J156" s="1" t="s">
+      <c r="K156" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="K156" s="1" t="s">
-        <v>688</v>
-      </c>
       <c r="L156" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M156" s="1"/>
       <c r="N156" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.35">
@@ -8001,13 +8001,13 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J157" s="2">
         <v>158</v>
@@ -8029,16 +8029,16 @@
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="J158" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="J158" s="1" t="s">
-        <v>694</v>
       </c>
       <c r="K158" s="1"/>
       <c r="L158" s="1" t="s">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="M158" s="1"/>
       <c r="N158" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.35">
@@ -8060,22 +8060,22 @@
         <v>15</v>
       </c>
       <c r="D159" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J159" s="2">
         <v>60</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
@@ -8092,25 +8092,25 @@
         <v>36</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="J160" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>702</v>
       </c>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.35">
@@ -8121,32 +8121,32 @@
         <v>0</v>
       </c>
       <c r="C161" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="E161" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="F161" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="J161" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="J161" s="2" t="s">
+      <c r="K161" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="K161" s="2" t="s">
-        <v>710</v>
       </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.35">
@@ -8160,27 +8160,27 @@
         <v>15</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J162" s="1">
         <v>47.8</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.35">
@@ -8195,15 +8195,15 @@
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="F163" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J163" s="2">
         <v>219</v>
@@ -8225,13 +8225,13 @@
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J164" s="1">
         <v>92</v>
@@ -8254,18 +8254,18 @@
         <v>15</v>
       </c>
       <c r="D165" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="F165" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J165" s="2">
         <v>202.21700000000001</v>
@@ -8274,7 +8274,7 @@
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
       <c r="N165" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.35">
@@ -8289,13 +8289,13 @@
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J166" s="1">
         <v>1001</v>
@@ -8317,18 +8317,18 @@
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="F167" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>729</v>
       </c>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
       <c r="I167" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="J167" s="2" t="s">
         <v>730</v>
-      </c>
-      <c r="J167" s="2" t="s">
-        <v>731</v>
       </c>
       <c r="K167" s="2" t="s">
         <v>233</v>
@@ -8349,16 +8349,16 @@
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="J168" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="J168" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
@@ -8379,13 +8379,13 @@
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J169" s="2">
         <v>65.179000000000002</v>
@@ -8394,7 +8394,7 @@
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
       <c r="N169" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.35">
@@ -8408,21 +8408,21 @@
         <v>273</v>
       </c>
       <c r="D170" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>739</v>
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K170" s="1" t="s">
         <v>273</v>
@@ -8432,7 +8432,7 @@
       </c>
       <c r="M170" s="1"/>
       <c r="N170" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.35">
@@ -8443,30 +8443,30 @@
         <v>5</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="F171" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>739</v>
       </c>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
       <c r="I171" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="J171" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>744</v>
-      </c>
       <c r="K171" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
       <c r="N171" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.35">
@@ -8483,18 +8483,18 @@
         <v>234</v>
       </c>
       <c r="E172" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>747</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="J172" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="J172" s="1" t="s">
-        <v>749</v>
       </c>
       <c r="K172" s="1" t="s">
         <v>80</v>
@@ -8502,7 +8502,7 @@
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
       <c r="N172" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.35">
@@ -8517,24 +8517,24 @@
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="I173" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="J173" s="2" t="s">
         <v>752</v>
-      </c>
-      <c r="J173" s="2" t="s">
-        <v>753</v>
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
       <c r="N173" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
